--- a/data/var_2019.xlsx
+++ b/data/var_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0CD36E-4352-E545-8240-BA7100E641F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171FC64-BCE1-DC45-A89F-2CA50C810BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="500" windowWidth="26040" windowHeight="13800" xr2:uid="{5D1B7AE3-EE9C-7547-A6B0-75A9ABF961F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="463">
   <si>
     <t>school_id</t>
   </si>
@@ -1419,6 +1419,12 @@
   </si>
   <si>
     <t>grades_middle</t>
+  </si>
+  <si>
+    <t>school_descriptor</t>
+  </si>
+  <si>
+    <t>school_descriptor_alt2019</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -1558,6 +1564,9 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,19 +1881,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7C072-B279-564E-8CB6-F20AB3BFFEC2}">
-  <dimension ref="A1:AJ174"/>
+  <dimension ref="A1:AL174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.83203125" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="125" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="125" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2004,14 @@
       <c r="AJ1" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="AK1" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2043,8 +2060,14 @@
       <c r="AJ2" s="8">
         <v>0</v>
       </c>
+      <c r="AK2" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45</v>
       </c>
@@ -2153,8 +2176,14 @@
       <c r="AJ3" s="8">
         <v>0</v>
       </c>
+      <c r="AK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -2263,8 +2292,14 @@
       <c r="AJ4" s="8">
         <v>0</v>
       </c>
+      <c r="AK4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -2373,8 +2408,14 @@
       <c r="AJ5" s="8">
         <v>0</v>
       </c>
+      <c r="AK5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>7</v>
       </c>
@@ -2475,8 +2516,14 @@
       <c r="AJ6" s="8">
         <v>0</v>
       </c>
+      <c r="AK6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>8</v>
       </c>
@@ -2525,8 +2572,14 @@
       <c r="AJ7" s="8">
         <v>0</v>
       </c>
+      <c r="AK7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>9</v>
       </c>
@@ -2635,8 +2688,14 @@
       <c r="AJ8" s="8">
         <v>1</v>
       </c>
+      <c r="AK8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>11</v>
       </c>
@@ -2685,8 +2744,14 @@
       <c r="AJ9" s="8">
         <v>0</v>
       </c>
+      <c r="AK9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -2791,8 +2856,14 @@
       <c r="AJ10" s="8">
         <v>0</v>
       </c>
+      <c r="AK10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -2895,8 +2966,14 @@
       <c r="AJ11" s="8">
         <v>0</v>
       </c>
+      <c r="AK11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -3005,8 +3082,14 @@
       <c r="AJ12" s="8">
         <v>0</v>
       </c>
+      <c r="AK12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>23</v>
       </c>
@@ -3115,8 +3198,14 @@
       <c r="AJ13" s="8">
         <v>0</v>
       </c>
+      <c r="AK13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>24</v>
       </c>
@@ -3219,8 +3308,14 @@
       <c r="AJ14" s="8">
         <v>0</v>
       </c>
+      <c r="AK14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>25</v>
       </c>
@@ -3323,8 +3418,14 @@
       <c r="AJ15" s="8">
         <v>0</v>
       </c>
+      <c r="AK15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>27</v>
       </c>
@@ -3429,8 +3530,14 @@
       <c r="AJ16" s="8">
         <v>0</v>
       </c>
+      <c r="AK16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>28</v>
       </c>
@@ -3539,8 +3646,14 @@
       <c r="AJ17" s="8">
         <v>0</v>
       </c>
+      <c r="AK17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>30</v>
       </c>
@@ -3649,8 +3762,14 @@
       <c r="AJ18" s="8">
         <v>0</v>
       </c>
+      <c r="AK18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>32</v>
       </c>
@@ -3759,8 +3878,14 @@
       <c r="AJ19" s="8">
         <v>0</v>
       </c>
+      <c r="AK19" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>33</v>
       </c>
@@ -3869,8 +3994,14 @@
       <c r="AJ20" s="8">
         <v>0</v>
       </c>
+      <c r="AK20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>34</v>
       </c>
@@ -3979,8 +4110,14 @@
       <c r="AJ21" s="8">
         <v>0</v>
       </c>
+      <c r="AK21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>35</v>
       </c>
@@ -4065,8 +4202,14 @@
       <c r="AJ22" s="8">
         <v>0</v>
       </c>
+      <c r="AK22" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>36</v>
       </c>
@@ -4175,8 +4318,14 @@
       <c r="AJ23" s="8">
         <v>0</v>
       </c>
+      <c r="AK23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>37</v>
       </c>
@@ -4279,8 +4428,14 @@
       <c r="AJ24" s="8">
         <v>0</v>
       </c>
+      <c r="AK24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>38</v>
       </c>
@@ -4387,8 +4542,14 @@
       <c r="AJ25" s="8">
         <v>0</v>
       </c>
+      <c r="AK25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>39</v>
       </c>
@@ -4491,8 +4652,14 @@
       <c r="AJ26" s="8">
         <v>0</v>
       </c>
+      <c r="AK26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>40</v>
       </c>
@@ -4601,8 +4768,14 @@
       <c r="AJ27" s="8">
         <v>0</v>
       </c>
+      <c r="AK27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>41</v>
       </c>
@@ -4689,8 +4862,14 @@
       <c r="AJ28" s="8">
         <v>0</v>
       </c>
+      <c r="AK28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>42</v>
       </c>
@@ -4797,8 +4976,14 @@
       <c r="AJ29" s="8">
         <v>0</v>
       </c>
+      <c r="AK29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44</v>
       </c>
@@ -4903,8 +5088,14 @@
       <c r="AJ30" s="8">
         <v>1</v>
       </c>
+      <c r="AK30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>46</v>
       </c>
@@ -5013,8 +5204,14 @@
       <c r="AJ31" s="8">
         <v>0</v>
       </c>
+      <c r="AK31" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>47</v>
       </c>
@@ -5117,8 +5314,14 @@
       <c r="AJ32" s="8">
         <v>1</v>
       </c>
+      <c r="AK32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>48</v>
       </c>
@@ -5227,8 +5430,14 @@
       <c r="AJ33" s="8">
         <v>0</v>
       </c>
+      <c r="AK33" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>49</v>
       </c>
@@ -5279,8 +5488,14 @@
       <c r="AJ34" s="8">
         <v>0</v>
       </c>
+      <c r="AK34" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>50</v>
       </c>
@@ -5389,8 +5604,14 @@
       <c r="AJ35" s="8">
         <v>0</v>
       </c>
+      <c r="AK35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>52</v>
       </c>
@@ -5497,8 +5718,14 @@
       <c r="AJ36" s="8">
         <v>1</v>
       </c>
+      <c r="AK36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>53</v>
       </c>
@@ -5607,8 +5834,14 @@
       <c r="AJ37" s="8">
         <v>0</v>
       </c>
+      <c r="AK37" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>54</v>
       </c>
@@ -5717,8 +5950,14 @@
       <c r="AJ38" s="8">
         <v>0</v>
       </c>
+      <c r="AK38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>56</v>
       </c>
@@ -5821,8 +6060,14 @@
       <c r="AJ39" s="8">
         <v>0</v>
       </c>
+      <c r="AK39" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>57</v>
       </c>
@@ -5931,8 +6176,14 @@
       <c r="AJ40" s="8">
         <v>0</v>
       </c>
+      <c r="AK40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>58</v>
       </c>
@@ -5983,8 +6234,14 @@
       <c r="AJ41" s="8">
         <v>0</v>
       </c>
+      <c r="AK41" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>59</v>
       </c>
@@ -6093,8 +6350,14 @@
       <c r="AJ42" s="8">
         <v>0</v>
       </c>
+      <c r="AK42" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>62</v>
       </c>
@@ -6143,8 +6406,14 @@
       <c r="AJ43" s="8">
         <v>1</v>
       </c>
+      <c r="AK43" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL43" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>63</v>
       </c>
@@ -6247,8 +6516,14 @@
       <c r="AJ44" s="8">
         <v>0</v>
       </c>
+      <c r="AK44" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>65</v>
       </c>
@@ -6357,8 +6632,14 @@
       <c r="AJ45" s="8">
         <v>1</v>
       </c>
+      <c r="AK45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>67</v>
       </c>
@@ -6407,8 +6688,14 @@
       <c r="AJ46" s="8">
         <v>0</v>
       </c>
+      <c r="AK46" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL46" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>69</v>
       </c>
@@ -6513,8 +6800,14 @@
       <c r="AJ47" s="8">
         <v>1</v>
       </c>
+      <c r="AK47" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>70</v>
       </c>
@@ -6623,8 +6916,14 @@
       <c r="AJ48" s="8">
         <v>0</v>
       </c>
+      <c r="AK48" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>71</v>
       </c>
@@ -6727,8 +7026,14 @@
       <c r="AJ49" s="8">
         <v>0</v>
       </c>
+      <c r="AK49" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>72</v>
       </c>
@@ -6779,8 +7084,14 @@
       <c r="AJ50" s="8">
         <v>0</v>
       </c>
+      <c r="AK50" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL50" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>73</v>
       </c>
@@ -6887,8 +7198,14 @@
       <c r="AJ51" s="8">
         <v>0</v>
       </c>
+      <c r="AK51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>75</v>
       </c>
@@ -6997,8 +7314,14 @@
       <c r="AJ52" s="8">
         <v>0</v>
       </c>
+      <c r="AK52" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>76</v>
       </c>
@@ -7097,8 +7420,14 @@
       <c r="AJ53" s="8">
         <v>0</v>
       </c>
+      <c r="AK53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>77</v>
       </c>
@@ -7207,8 +7536,14 @@
       <c r="AJ54" s="8">
         <v>0</v>
       </c>
+      <c r="AK54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>78</v>
       </c>
@@ -7317,8 +7652,14 @@
       <c r="AJ55" s="8">
         <v>0</v>
       </c>
+      <c r="AK55" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>79</v>
       </c>
@@ -7421,8 +7762,14 @@
       <c r="AJ56" s="8">
         <v>1</v>
       </c>
+      <c r="AK56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>80</v>
       </c>
@@ -7507,8 +7854,14 @@
       <c r="AJ57" s="8">
         <v>0</v>
       </c>
+      <c r="AK57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>81</v>
       </c>
@@ -7591,8 +7944,14 @@
       <c r="AJ58" s="8">
         <v>0</v>
       </c>
+      <c r="AK58" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL58" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>83</v>
       </c>
@@ -7695,8 +8054,14 @@
       <c r="AJ59" s="8">
         <v>1</v>
       </c>
+      <c r="AK59" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL59" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>84</v>
       </c>
@@ -7799,8 +8164,14 @@
       <c r="AJ60" s="8">
         <v>0</v>
       </c>
+      <c r="AK60" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>85</v>
       </c>
@@ -7909,8 +8280,14 @@
       <c r="AJ61" s="8">
         <v>1</v>
       </c>
+      <c r="AK61" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL61" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>88</v>
       </c>
@@ -8009,8 +8386,14 @@
       <c r="AJ62" s="8">
         <v>0</v>
       </c>
+      <c r="AK62" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL62" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>89</v>
       </c>
@@ -8119,8 +8502,14 @@
       <c r="AJ63" s="8">
         <v>1</v>
       </c>
+      <c r="AK63" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL63" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>90</v>
       </c>
@@ -8225,8 +8614,14 @@
       <c r="AJ64" s="8">
         <v>0</v>
       </c>
+      <c r="AK64" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>93</v>
       </c>
@@ -8335,8 +8730,14 @@
       <c r="AJ65" s="8">
         <v>0</v>
       </c>
+      <c r="AK65" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL65" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>94</v>
       </c>
@@ -8445,8 +8846,14 @@
       <c r="AJ66" s="8">
         <v>0</v>
       </c>
+      <c r="AK66" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>95</v>
       </c>
@@ -8555,8 +8962,14 @@
       <c r="AJ67" s="8">
         <v>0</v>
       </c>
+      <c r="AK67" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL67" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>97</v>
       </c>
@@ -8665,8 +9078,14 @@
       <c r="AJ68" s="8">
         <v>1</v>
       </c>
+      <c r="AK68" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>98</v>
       </c>
@@ -8769,8 +9188,14 @@
       <c r="AJ69" s="8">
         <v>0</v>
       </c>
+      <c r="AK69" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL69" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>100</v>
       </c>
@@ -8819,8 +9244,14 @@
       <c r="AJ70" s="8">
         <v>0</v>
       </c>
+      <c r="AK70" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL70" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>101</v>
       </c>
@@ -8869,8 +9300,14 @@
       <c r="AJ71" s="8">
         <v>0</v>
       </c>
+      <c r="AK71" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL71" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>102</v>
       </c>
@@ -8977,8 +9414,14 @@
       <c r="AJ72" s="8">
         <v>1</v>
       </c>
+      <c r="AK72" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>235</v>
       </c>
@@ -9087,8 +9530,14 @@
       <c r="AJ73" s="8">
         <v>0</v>
       </c>
+      <c r="AK73" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>103</v>
       </c>
@@ -9197,8 +9646,14 @@
       <c r="AJ74" s="8">
         <v>0</v>
       </c>
+      <c r="AK74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>104</v>
       </c>
@@ -9307,8 +9762,14 @@
       <c r="AJ75" s="8">
         <v>0</v>
       </c>
+      <c r="AK75" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>105</v>
       </c>
@@ -9417,8 +9878,14 @@
       <c r="AJ76" s="8">
         <v>0</v>
       </c>
+      <c r="AK76" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>106</v>
       </c>
@@ -9503,8 +9970,14 @@
       <c r="AJ77" s="8">
         <v>1</v>
       </c>
+      <c r="AK77" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>108</v>
       </c>
@@ -9609,8 +10082,14 @@
       <c r="AJ78" s="8">
         <v>1</v>
       </c>
+      <c r="AK78" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL78" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>110</v>
       </c>
@@ -9719,8 +10198,14 @@
       <c r="AJ79" s="8">
         <v>1</v>
       </c>
+      <c r="AK79" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL79" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>111</v>
       </c>
@@ -9769,8 +10254,14 @@
       <c r="AJ80" s="8">
         <v>0</v>
       </c>
+      <c r="AK80" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL80" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>112</v>
       </c>
@@ -9877,8 +10368,14 @@
       <c r="AJ81" s="8">
         <v>1</v>
       </c>
+      <c r="AK81" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>116</v>
       </c>
@@ -9985,8 +10482,14 @@
       <c r="AJ82" s="8">
         <v>0</v>
       </c>
+      <c r="AK82" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>117</v>
       </c>
@@ -10089,8 +10592,14 @@
       <c r="AJ83" s="8">
         <v>0</v>
       </c>
+      <c r="AK83" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL83" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>118</v>
       </c>
@@ -10199,8 +10708,14 @@
       <c r="AJ84" s="8">
         <v>1</v>
       </c>
+      <c r="AK84" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>119</v>
       </c>
@@ -10309,8 +10824,14 @@
       <c r="AJ85" s="8">
         <v>0</v>
       </c>
+      <c r="AK85" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL85" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>120</v>
       </c>
@@ -10419,8 +10940,14 @@
       <c r="AJ86" s="8">
         <v>0</v>
       </c>
+      <c r="AK86" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL86" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>122</v>
       </c>
@@ -10471,8 +10998,14 @@
       <c r="AJ87" s="8">
         <v>0</v>
       </c>
+      <c r="AK87" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL87" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>124</v>
       </c>
@@ -10581,8 +11114,14 @@
       <c r="AJ88" s="8">
         <v>0</v>
       </c>
+      <c r="AK88" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL88" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>125</v>
       </c>
@@ -10689,8 +11228,14 @@
       <c r="AJ89" s="8">
         <v>0</v>
       </c>
+      <c r="AK89" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>127</v>
       </c>
@@ -10797,8 +11342,14 @@
       <c r="AJ90" s="8">
         <v>1</v>
       </c>
+      <c r="AK90" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>128</v>
       </c>
@@ -10907,8 +11458,14 @@
       <c r="AJ91" s="8">
         <v>0</v>
       </c>
+      <c r="AK91" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL91" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>130</v>
       </c>
@@ -11015,8 +11572,14 @@
       <c r="AJ92" s="8">
         <v>0</v>
       </c>
+      <c r="AK92" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL92" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>131</v>
       </c>
@@ -11125,8 +11688,14 @@
       <c r="AJ93" s="8">
         <v>1</v>
       </c>
+      <c r="AK93" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL93" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>132</v>
       </c>
@@ -11235,8 +11804,14 @@
       <c r="AJ94" s="8">
         <v>0</v>
       </c>
+      <c r="AK94" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL94" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>133</v>
       </c>
@@ -11341,8 +11916,14 @@
       <c r="AJ95" s="8">
         <v>0</v>
       </c>
+      <c r="AK95" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>91</v>
       </c>
@@ -11451,8 +12032,14 @@
       <c r="AJ96" s="8">
         <v>0</v>
       </c>
+      <c r="AK96" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL96" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>134</v>
       </c>
@@ -11555,8 +12142,14 @@
       <c r="AJ97" s="8">
         <v>1</v>
       </c>
+      <c r="AK97" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL97" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>135</v>
       </c>
@@ -11607,8 +12200,14 @@
       <c r="AJ98" s="8">
         <v>0</v>
       </c>
+      <c r="AK98" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL98" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>136</v>
       </c>
@@ -11657,8 +12256,14 @@
       <c r="AJ99" s="8">
         <v>0</v>
       </c>
+      <c r="AK99" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL99" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>137</v>
       </c>
@@ -11763,8 +12368,14 @@
       <c r="AJ100" s="8">
         <v>0</v>
       </c>
+      <c r="AK100" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL100" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>139</v>
       </c>
@@ -11871,8 +12482,14 @@
       <c r="AJ101" s="8">
         <v>0</v>
       </c>
+      <c r="AK101" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL101" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>140</v>
       </c>
@@ -11979,8 +12596,14 @@
       <c r="AJ102" s="8">
         <v>0</v>
       </c>
+      <c r="AK102" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL102" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>141</v>
       </c>
@@ -12065,8 +12688,14 @@
       <c r="AJ103" s="8">
         <v>0</v>
       </c>
+      <c r="AK103" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL103" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>142</v>
       </c>
@@ -12175,8 +12804,14 @@
       <c r="AJ104" s="8">
         <v>1</v>
       </c>
+      <c r="AK104" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL104" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>143</v>
       </c>
@@ -12225,8 +12860,14 @@
       <c r="AJ105" s="8">
         <v>0</v>
       </c>
+      <c r="AK105" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL105" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>144</v>
       </c>
@@ -12335,8 +12976,14 @@
       <c r="AJ106" s="8">
         <v>0</v>
       </c>
+      <c r="AK106" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL106" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>145</v>
       </c>
@@ -12445,8 +13092,14 @@
       <c r="AJ107" s="8">
         <v>0</v>
       </c>
+      <c r="AK107" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL107" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>147</v>
       </c>
@@ -12555,8 +13208,14 @@
       <c r="AJ108" s="8">
         <v>0</v>
       </c>
+      <c r="AK108" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL108" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>150</v>
       </c>
@@ -12605,8 +13264,14 @@
       <c r="AJ109" s="8">
         <v>0</v>
       </c>
+      <c r="AK109" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL109" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>151</v>
       </c>
@@ -12715,8 +13380,14 @@
       <c r="AJ110" s="8">
         <v>0</v>
       </c>
+      <c r="AK110" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL110" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>153</v>
       </c>
@@ -12825,8 +13496,14 @@
       <c r="AJ111" s="8">
         <v>1</v>
       </c>
+      <c r="AK111" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL111" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>154</v>
       </c>
@@ -12931,8 +13608,14 @@
       <c r="AJ112" s="8">
         <v>0</v>
       </c>
+      <c r="AK112" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL112" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>156</v>
       </c>
@@ -13039,8 +13722,14 @@
       <c r="AJ113" s="8">
         <v>1</v>
       </c>
+      <c r="AK113" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL113" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>159</v>
       </c>
@@ -13147,8 +13836,14 @@
       <c r="AJ114" s="8">
         <v>0</v>
       </c>
+      <c r="AK114" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL114" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>160</v>
       </c>
@@ -13255,8 +13950,14 @@
       <c r="AJ115" s="8">
         <v>0</v>
       </c>
+      <c r="AK115" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL115" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>161</v>
       </c>
@@ -13361,8 +14062,14 @@
       <c r="AJ116" s="8">
         <v>1</v>
       </c>
+      <c r="AK116" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL116" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>162</v>
       </c>
@@ -13467,8 +14174,14 @@
       <c r="AJ117" s="8">
         <v>0</v>
       </c>
+      <c r="AK117" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL117" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>164</v>
       </c>
@@ -13517,8 +14230,14 @@
       <c r="AJ118" s="8">
         <v>0</v>
       </c>
+      <c r="AK118" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL118" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>165</v>
       </c>
@@ -13603,8 +14322,14 @@
       <c r="AJ119" s="8">
         <v>0</v>
       </c>
+      <c r="AK119" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL119" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>167</v>
       </c>
@@ -13713,8 +14438,14 @@
       <c r="AJ120" s="8">
         <v>0</v>
       </c>
+      <c r="AK120" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>168</v>
       </c>
@@ -13819,8 +14550,14 @@
       <c r="AJ121" s="8">
         <v>0</v>
       </c>
+      <c r="AK121" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL121" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>169</v>
       </c>
@@ -13929,8 +14666,14 @@
       <c r="AJ122" s="8">
         <v>0</v>
       </c>
+      <c r="AK122" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL122" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>170</v>
       </c>
@@ -14039,8 +14782,14 @@
       <c r="AJ123" s="8">
         <v>0</v>
       </c>
+      <c r="AK123" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL123" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>172</v>
       </c>
@@ -14125,8 +14874,14 @@
       <c r="AJ124" s="8">
         <v>0</v>
       </c>
+      <c r="AK124" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL124" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>174</v>
       </c>
@@ -14235,8 +14990,14 @@
       <c r="AJ125" s="8">
         <v>0</v>
       </c>
+      <c r="AK125" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL125" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>175</v>
       </c>
@@ -14345,8 +15106,14 @@
       <c r="AJ126" s="8">
         <v>0</v>
       </c>
+      <c r="AK126" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL126" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>176</v>
       </c>
@@ -14455,8 +15222,14 @@
       <c r="AJ127" s="8">
         <v>0</v>
       </c>
+      <c r="AK127" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL127" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>177</v>
       </c>
@@ -14565,8 +15338,14 @@
       <c r="AJ128" s="8">
         <v>0</v>
       </c>
+      <c r="AK128" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL128" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>178</v>
       </c>
@@ -14675,8 +15454,14 @@
       <c r="AJ129" s="8">
         <v>1</v>
       </c>
+      <c r="AK129" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL129" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>179</v>
       </c>
@@ -14785,8 +15570,14 @@
       <c r="AJ130" s="8">
         <v>1</v>
       </c>
+      <c r="AK130" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL130" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>180</v>
       </c>
@@ -14895,8 +15686,14 @@
       <c r="AJ131" s="8">
         <v>0</v>
       </c>
+      <c r="AK131" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL131" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>183</v>
       </c>
@@ -15005,8 +15802,14 @@
       <c r="AJ132" s="8">
         <v>1</v>
       </c>
+      <c r="AK132" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL132" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>184</v>
       </c>
@@ -15113,8 +15916,14 @@
       <c r="AJ133" s="8">
         <v>0</v>
       </c>
+      <c r="AK133" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL133" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>185</v>
       </c>
@@ -15209,8 +16018,14 @@
       <c r="AJ134" s="8">
         <v>0</v>
       </c>
+      <c r="AK134" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL134" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>186</v>
       </c>
@@ -15319,8 +16134,14 @@
       <c r="AJ135" s="8">
         <v>0</v>
       </c>
+      <c r="AK135" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL135" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>189</v>
       </c>
@@ -15423,8 +16244,14 @@
       <c r="AJ136" s="8">
         <v>0</v>
       </c>
+      <c r="AK136" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL136" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>190</v>
       </c>
@@ -15473,8 +16300,14 @@
       <c r="AJ137" s="8">
         <v>0</v>
       </c>
+      <c r="AK137" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL137" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>191</v>
       </c>
@@ -15577,8 +16410,14 @@
       <c r="AJ138" s="8">
         <v>0</v>
       </c>
+      <c r="AK138" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL138" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>193</v>
       </c>
@@ -15687,8 +16526,14 @@
       <c r="AJ139" s="8">
         <v>0</v>
       </c>
+      <c r="AK139" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL139" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>192</v>
       </c>
@@ -15797,8 +16642,14 @@
       <c r="AJ140" s="8">
         <v>0</v>
       </c>
+      <c r="AK140" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>194</v>
       </c>
@@ -15849,8 +16700,14 @@
       <c r="AJ141" s="8">
         <v>1</v>
       </c>
+      <c r="AK141" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL141" s="8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>195</v>
       </c>
@@ -15901,8 +16758,14 @@
       <c r="AJ142" s="8">
         <v>1</v>
       </c>
+      <c r="AK142" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL142" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>196</v>
       </c>
@@ -16011,8 +16874,14 @@
       <c r="AJ143" s="8">
         <v>0</v>
       </c>
+      <c r="AK143" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL143" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>197</v>
       </c>
@@ -16113,8 +16982,14 @@
       <c r="AJ144" s="8">
         <v>0</v>
       </c>
+      <c r="AK144" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL144" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>198</v>
       </c>
@@ -16221,8 +17096,14 @@
       <c r="AJ145" s="8">
         <v>0</v>
       </c>
+      <c r="AK145" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL145" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>200</v>
       </c>
@@ -16327,8 +17208,14 @@
       <c r="AJ146" s="8">
         <v>1</v>
       </c>
+      <c r="AK146" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL146" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>201</v>
       </c>
@@ -16437,8 +17324,14 @@
       <c r="AJ147" s="8">
         <v>0</v>
       </c>
+      <c r="AK147" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL147" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>3</v>
       </c>
@@ -16523,8 +17416,14 @@
       <c r="AJ148" s="8">
         <v>0</v>
       </c>
+      <c r="AK148" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL148" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>203</v>
       </c>
@@ -16627,8 +17526,14 @@
       <c r="AJ149" s="8">
         <v>0</v>
       </c>
+      <c r="AK149" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL149" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>204</v>
       </c>
@@ -16737,8 +17642,14 @@
       <c r="AJ150" s="8">
         <v>0</v>
       </c>
+      <c r="AK150" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL150" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>205</v>
       </c>
@@ -16823,8 +17734,14 @@
       <c r="AJ151" s="8">
         <v>0</v>
       </c>
+      <c r="AK151" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL151" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>206</v>
       </c>
@@ -16927,8 +17844,14 @@
       <c r="AJ152" s="8">
         <v>0</v>
       </c>
+      <c r="AK152" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL152" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>208</v>
       </c>
@@ -17037,8 +17960,14 @@
       <c r="AJ153" s="8">
         <v>0</v>
       </c>
+      <c r="AK153" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL153" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>209</v>
       </c>
@@ -17143,8 +18072,14 @@
       <c r="AJ154" s="8">
         <v>0</v>
       </c>
+      <c r="AK154" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL154" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>210</v>
       </c>
@@ -17251,8 +18186,14 @@
       <c r="AJ155" s="8">
         <v>0</v>
       </c>
+      <c r="AK155" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL155" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>211</v>
       </c>
@@ -17355,8 +18296,14 @@
       <c r="AJ156" s="8">
         <v>1</v>
       </c>
+      <c r="AK156" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL156" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>212</v>
       </c>
@@ -17459,8 +18406,14 @@
       <c r="AJ157" s="8">
         <v>0</v>
       </c>
+      <c r="AK157" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL157" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>64</v>
       </c>
@@ -17561,8 +18514,14 @@
       <c r="AJ158" s="8">
         <v>0</v>
       </c>
+      <c r="AK158" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL158" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>214</v>
       </c>
@@ -17669,8 +18628,14 @@
       <c r="AJ159" s="8">
         <v>0</v>
       </c>
+      <c r="AK159" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL159" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>215</v>
       </c>
@@ -17775,8 +18740,14 @@
       <c r="AJ160" s="8">
         <v>0</v>
       </c>
+      <c r="AK160" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL160" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>216</v>
       </c>
@@ -17883,8 +18854,14 @@
       <c r="AJ161" s="8">
         <v>0</v>
       </c>
+      <c r="AK161" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL161" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>234</v>
       </c>
@@ -17989,8 +18966,14 @@
       <c r="AJ162" s="8">
         <v>0</v>
       </c>
+      <c r="AK162" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL162" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>218</v>
       </c>
@@ -18099,8 +19082,14 @@
       <c r="AJ163" s="8">
         <v>0</v>
       </c>
+      <c r="AK163" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL163" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>219</v>
       </c>
@@ -18209,8 +19198,14 @@
       <c r="AJ164" s="8">
         <v>0</v>
       </c>
+      <c r="AK164" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL164" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>220</v>
       </c>
@@ -18305,8 +19300,14 @@
       <c r="AJ165" s="8">
         <v>1</v>
       </c>
+      <c r="AK165" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL165" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>223</v>
       </c>
@@ -18409,8 +19410,14 @@
       <c r="AJ166" s="8">
         <v>1</v>
       </c>
+      <c r="AK166" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL166" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>224</v>
       </c>
@@ -18515,8 +19522,14 @@
       <c r="AJ167" s="8">
         <v>0</v>
       </c>
+      <c r="AK167" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL167" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>225</v>
       </c>
@@ -18625,8 +19638,14 @@
       <c r="AJ168" s="8">
         <v>0</v>
       </c>
+      <c r="AK168" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL168" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>226</v>
       </c>
@@ -18735,8 +19754,14 @@
       <c r="AJ169" s="8">
         <v>0</v>
       </c>
+      <c r="AK169" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL169" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>228</v>
       </c>
@@ -18845,8 +19870,14 @@
       <c r="AJ170" s="8">
         <v>0</v>
       </c>
+      <c r="AK170" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL170" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>229</v>
       </c>
@@ -18955,8 +19986,14 @@
       <c r="AJ171" s="8">
         <v>0</v>
       </c>
+      <c r="AK171" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL171" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>230</v>
       </c>
@@ -19005,8 +20042,14 @@
       <c r="AJ172" s="8">
         <v>0</v>
       </c>
+      <c r="AK172" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL172" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>231</v>
       </c>
@@ -19111,8 +20154,14 @@
       <c r="AJ173" s="8">
         <v>0</v>
       </c>
+      <c r="AK173" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL173" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>232</v>
       </c>
@@ -19220,6 +20269,12 @@
       </c>
       <c r="AJ174" s="8">
         <v>0</v>
+      </c>
+      <c r="AK174" s="8">
+        <v>1</v>
+      </c>
+      <c r="AL174" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/var_2019.xlsx
+++ b/data/var_2019.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171FC64-BCE1-DC45-A89F-2CA50C810BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0654F-863B-9B40-B83C-EB106E0CF972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="500" windowWidth="26040" windowHeight="13800" xr2:uid="{5D1B7AE3-EE9C-7547-A6B0-75A9ABF961F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="464">
   <si>
     <t>school_id</t>
   </si>
@@ -1425,6 +1425,9 @@
   </si>
   <si>
     <t>school_descriptor_alt2019</t>
+  </si>
+  <si>
+    <t>title_i_schoolwide</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F7C072-B279-564E-8CB6-F20AB3BFFEC2}">
-  <dimension ref="A1:AL174"/>
+  <dimension ref="A1:AM174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1892,10 +1895,10 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="36" max="36" width="8.6640625" customWidth="1"/>
     <col min="37" max="37" width="19.83203125" customWidth="1"/>
-    <col min="38" max="38" width="8.6640625" customWidth="1"/>
+    <col min="38" max="39" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="125" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="125" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2010,8 +2013,11 @@
       <c r="AL1" s="19" t="s">
         <v>462</v>
       </c>
+      <c r="AM1" s="18" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2066,8 +2072,9 @@
       <c r="AL2" s="8">
         <v>1</v>
       </c>
+      <c r="AM2" s="8"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45</v>
       </c>
@@ -2182,8 +2189,11 @@
       <c r="AL3" s="8">
         <v>2</v>
       </c>
+      <c r="AM3" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -2298,8 +2308,11 @@
       <c r="AL4" s="8">
         <v>1</v>
       </c>
+      <c r="AM4" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>6</v>
       </c>
@@ -2414,8 +2427,11 @@
       <c r="AL5" s="8">
         <v>2</v>
       </c>
+      <c r="AM5" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>7</v>
       </c>
@@ -2522,8 +2538,11 @@
       <c r="AL6" s="8">
         <v>2</v>
       </c>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>8</v>
       </c>
@@ -2578,8 +2597,9 @@
       <c r="AL7" s="8">
         <v>3</v>
       </c>
+      <c r="AM7" s="8"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>9</v>
       </c>
@@ -2694,8 +2714,11 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
+      <c r="AM8" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>11</v>
       </c>
@@ -2750,8 +2773,9 @@
       <c r="AL9" s="8">
         <v>3</v>
       </c>
+      <c r="AM9" s="8"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -2862,8 +2886,11 @@
       <c r="AL10" s="8">
         <v>2</v>
       </c>
+      <c r="AM10" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -2972,8 +2999,11 @@
       <c r="AL11" s="8">
         <v>1</v>
       </c>
+      <c r="AM11" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>19</v>
       </c>
@@ -3088,8 +3118,11 @@
       <c r="AL12" s="8">
         <v>1</v>
       </c>
+      <c r="AM12" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>23</v>
       </c>
@@ -3204,8 +3237,11 @@
       <c r="AL13" s="8">
         <v>1</v>
       </c>
+      <c r="AM13" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>24</v>
       </c>
@@ -3314,8 +3350,11 @@
       <c r="AL14" s="8">
         <v>2</v>
       </c>
+      <c r="AM14" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>25</v>
       </c>
@@ -3424,8 +3463,11 @@
       <c r="AL15" s="8">
         <v>1</v>
       </c>
+      <c r="AM15" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>27</v>
       </c>
@@ -3536,8 +3578,11 @@
       <c r="AL16" s="8">
         <v>1</v>
       </c>
+      <c r="AM16" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>28</v>
       </c>
@@ -3652,8 +3697,11 @@
       <c r="AL17" s="8">
         <v>1</v>
       </c>
+      <c r="AM17" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>30</v>
       </c>
@@ -3768,8 +3816,11 @@
       <c r="AL18" s="8">
         <v>1</v>
       </c>
+      <c r="AM18" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>32</v>
       </c>
@@ -3884,8 +3935,11 @@
       <c r="AL19" s="8">
         <v>2</v>
       </c>
+      <c r="AM19" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>33</v>
       </c>
@@ -4000,8 +4054,11 @@
       <c r="AL20" s="8">
         <v>1</v>
       </c>
+      <c r="AM20" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>34</v>
       </c>
@@ -4116,8 +4173,11 @@
       <c r="AL21" s="8">
         <v>1</v>
       </c>
+      <c r="AM21" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>35</v>
       </c>
@@ -4208,8 +4268,9 @@
       <c r="AL22" s="8">
         <v>2</v>
       </c>
+      <c r="AM22" s="8"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>36</v>
       </c>
@@ -4324,8 +4385,11 @@
       <c r="AL23" s="8">
         <v>1</v>
       </c>
+      <c r="AM23" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>37</v>
       </c>
@@ -4434,8 +4498,11 @@
       <c r="AL24" s="8">
         <v>2</v>
       </c>
+      <c r="AM24" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>38</v>
       </c>
@@ -4548,8 +4615,11 @@
       <c r="AL25" s="8">
         <v>2</v>
       </c>
+      <c r="AM25" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>39</v>
       </c>
@@ -4658,8 +4728,11 @@
       <c r="AL26" s="8">
         <v>1</v>
       </c>
+      <c r="AM26" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>40</v>
       </c>
@@ -4774,8 +4847,11 @@
       <c r="AL27" s="8">
         <v>1</v>
       </c>
+      <c r="AM27" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>41</v>
       </c>
@@ -4868,8 +4944,9 @@
       <c r="AL28" s="8">
         <v>1</v>
       </c>
+      <c r="AM28" s="8"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>42</v>
       </c>
@@ -4982,8 +5059,11 @@
       <c r="AL29" s="8">
         <v>1</v>
       </c>
+      <c r="AM29" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44</v>
       </c>
@@ -5094,8 +5174,11 @@
       <c r="AL30" s="8">
         <v>2</v>
       </c>
+      <c r="AM30" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>46</v>
       </c>
@@ -5210,8 +5293,11 @@
       <c r="AL31" s="8">
         <v>2</v>
       </c>
+      <c r="AM31" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>47</v>
       </c>
@@ -5320,8 +5406,11 @@
       <c r="AL32" s="8">
         <v>1</v>
       </c>
+      <c r="AM32" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>48</v>
       </c>
@@ -5436,8 +5525,11 @@
       <c r="AL33" s="8">
         <v>2</v>
       </c>
+      <c r="AM33" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>49</v>
       </c>
@@ -5494,8 +5586,9 @@
       <c r="AL34" s="8">
         <v>1</v>
       </c>
+      <c r="AM34" s="8"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>50</v>
       </c>
@@ -5610,8 +5703,11 @@
       <c r="AL35" s="8">
         <v>1</v>
       </c>
+      <c r="AM35" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>52</v>
       </c>
@@ -5724,8 +5820,11 @@
       <c r="AL36" s="8">
         <v>1</v>
       </c>
+      <c r="AM36" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>53</v>
       </c>
@@ -5840,8 +5939,11 @@
       <c r="AL37" s="8">
         <v>2</v>
       </c>
+      <c r="AM37" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>54</v>
       </c>
@@ -5956,8 +6058,11 @@
       <c r="AL38" s="8">
         <v>1</v>
       </c>
+      <c r="AM38" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>56</v>
       </c>
@@ -6066,8 +6171,9 @@
       <c r="AL39" s="8">
         <v>2</v>
       </c>
+      <c r="AM39" s="8"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>57</v>
       </c>
@@ -6182,8 +6288,11 @@
       <c r="AL40" s="8">
         <v>1</v>
       </c>
+      <c r="AM40" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>58</v>
       </c>
@@ -6240,8 +6349,9 @@
       <c r="AL41" s="8">
         <v>1</v>
       </c>
+      <c r="AM41" s="8"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>59</v>
       </c>
@@ -6356,8 +6466,11 @@
       <c r="AL42" s="8">
         <v>2</v>
       </c>
+      <c r="AM42" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>62</v>
       </c>
@@ -6412,8 +6525,9 @@
       <c r="AL43" s="8">
         <v>1</v>
       </c>
+      <c r="AM43" s="8"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>63</v>
       </c>
@@ -6522,8 +6636,11 @@
       <c r="AL44" s="8">
         <v>2</v>
       </c>
+      <c r="AM44" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>65</v>
       </c>
@@ -6638,8 +6755,11 @@
       <c r="AL45" s="8">
         <v>1</v>
       </c>
+      <c r="AM45" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>67</v>
       </c>
@@ -6694,8 +6814,9 @@
       <c r="AL46" s="8">
         <v>1</v>
       </c>
+      <c r="AM46" s="8"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>69</v>
       </c>
@@ -6806,8 +6927,11 @@
       <c r="AL47" s="8">
         <v>1</v>
       </c>
+      <c r="AM47" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>70</v>
       </c>
@@ -6922,8 +7046,11 @@
       <c r="AL48" s="8">
         <v>2</v>
       </c>
+      <c r="AM48" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>71</v>
       </c>
@@ -7032,8 +7159,11 @@
       <c r="AL49" s="8">
         <v>1</v>
       </c>
+      <c r="AM49" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>72</v>
       </c>
@@ -7090,8 +7220,9 @@
       <c r="AL50" s="8">
         <v>1</v>
       </c>
+      <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>73</v>
       </c>
@@ -7204,8 +7335,11 @@
       <c r="AL51" s="8">
         <v>1</v>
       </c>
+      <c r="AM51" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>75</v>
       </c>
@@ -7320,8 +7454,11 @@
       <c r="AL52" s="8">
         <v>2</v>
       </c>
+      <c r="AM52" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>76</v>
       </c>
@@ -7426,8 +7563,11 @@
       <c r="AL53" s="8">
         <v>1</v>
       </c>
+      <c r="AM53" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>77</v>
       </c>
@@ -7542,8 +7682,11 @@
       <c r="AL54" s="8">
         <v>1</v>
       </c>
+      <c r="AM54" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>78</v>
       </c>
@@ -7658,8 +7801,11 @@
       <c r="AL55" s="8">
         <v>2</v>
       </c>
+      <c r="AM55" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>79</v>
       </c>
@@ -7768,8 +7914,11 @@
       <c r="AL56" s="8">
         <v>1</v>
       </c>
+      <c r="AM56" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>80</v>
       </c>
@@ -7860,8 +8009,9 @@
       <c r="AL57" s="8">
         <v>1</v>
       </c>
+      <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>81</v>
       </c>
@@ -7950,8 +8100,9 @@
       <c r="AL58" s="8">
         <v>2</v>
       </c>
+      <c r="AM58" s="8"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>83</v>
       </c>
@@ -8060,8 +8211,11 @@
       <c r="AL59" s="8">
         <v>2</v>
       </c>
+      <c r="AM59" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>84</v>
       </c>
@@ -8170,8 +8324,11 @@
       <c r="AL60" s="8">
         <v>1</v>
       </c>
+      <c r="AM60" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>85</v>
       </c>
@@ -8286,8 +8443,11 @@
       <c r="AL61" s="8">
         <v>2</v>
       </c>
+      <c r="AM61" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>88</v>
       </c>
@@ -8392,8 +8552,11 @@
       <c r="AL62" s="8">
         <v>2</v>
       </c>
+      <c r="AM62" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>89</v>
       </c>
@@ -8508,8 +8671,9 @@
       <c r="AL63" s="8">
         <v>1</v>
       </c>
+      <c r="AM63" s="8"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>90</v>
       </c>
@@ -8620,8 +8784,11 @@
       <c r="AL64" s="8">
         <v>1</v>
       </c>
+      <c r="AM64" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>93</v>
       </c>
@@ -8736,8 +8903,11 @@
       <c r="AL65" s="8">
         <v>1</v>
       </c>
+      <c r="AM65" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>94</v>
       </c>
@@ -8852,8 +9022,11 @@
       <c r="AL66" s="8">
         <v>1</v>
       </c>
+      <c r="AM66" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>95</v>
       </c>
@@ -8968,8 +9141,11 @@
       <c r="AL67" s="8">
         <v>1</v>
       </c>
+      <c r="AM67" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>97</v>
       </c>
@@ -9084,8 +9260,11 @@
       <c r="AL68" s="8">
         <v>1</v>
       </c>
+      <c r="AM68" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>98</v>
       </c>
@@ -9194,8 +9373,11 @@
       <c r="AL69" s="8">
         <v>2</v>
       </c>
+      <c r="AM69" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>100</v>
       </c>
@@ -9250,8 +9432,9 @@
       <c r="AL70" s="8">
         <v>1</v>
       </c>
+      <c r="AM70" s="8"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>101</v>
       </c>
@@ -9306,8 +9489,9 @@
       <c r="AL71" s="8">
         <v>1</v>
       </c>
+      <c r="AM71" s="8"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>102</v>
       </c>
@@ -9420,8 +9604,11 @@
       <c r="AL72" s="8">
         <v>1</v>
       </c>
+      <c r="AM72" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>235</v>
       </c>
@@ -9536,8 +9723,11 @@
       <c r="AL73" s="8">
         <v>1</v>
       </c>
+      <c r="AM73" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>103</v>
       </c>
@@ -9652,8 +9842,11 @@
       <c r="AL74" s="8">
         <v>3</v>
       </c>
+      <c r="AM74" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>104</v>
       </c>
@@ -9768,8 +9961,11 @@
       <c r="AL75" s="8">
         <v>1</v>
       </c>
+      <c r="AM75" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>105</v>
       </c>
@@ -9884,8 +10080,11 @@
       <c r="AL76" s="8">
         <v>1</v>
       </c>
+      <c r="AM76" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>106</v>
       </c>
@@ -9976,8 +10175,9 @@
       <c r="AL77" s="8">
         <v>1</v>
       </c>
+      <c r="AM77" s="8"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>108</v>
       </c>
@@ -10088,8 +10288,11 @@
       <c r="AL78" s="8">
         <v>2</v>
       </c>
+      <c r="AM78" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>110</v>
       </c>
@@ -10204,8 +10407,11 @@
       <c r="AL79" s="8">
         <v>2</v>
       </c>
+      <c r="AM79" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>111</v>
       </c>
@@ -10260,8 +10466,9 @@
       <c r="AL80" s="8">
         <v>1</v>
       </c>
+      <c r="AM80" s="8"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>112</v>
       </c>
@@ -10374,8 +10581,11 @@
       <c r="AL81" s="8">
         <v>1</v>
       </c>
+      <c r="AM81" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>116</v>
       </c>
@@ -10488,8 +10698,11 @@
       <c r="AL82" s="8">
         <v>1</v>
       </c>
+      <c r="AM82" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>117</v>
       </c>
@@ -10598,8 +10811,9 @@
       <c r="AL83" s="8">
         <v>2</v>
       </c>
+      <c r="AM83" s="8"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>118</v>
       </c>
@@ -10714,8 +10928,11 @@
       <c r="AL84" s="8">
         <v>1</v>
       </c>
+      <c r="AM84" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>119</v>
       </c>
@@ -10830,8 +11047,11 @@
       <c r="AL85" s="8">
         <v>1</v>
       </c>
+      <c r="AM85" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>120</v>
       </c>
@@ -10946,8 +11166,11 @@
       <c r="AL86" s="8">
         <v>2</v>
       </c>
+      <c r="AM86" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>122</v>
       </c>
@@ -11004,8 +11227,9 @@
       <c r="AL87" s="8">
         <v>1</v>
       </c>
+      <c r="AM87" s="8"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>124</v>
       </c>
@@ -11120,8 +11344,11 @@
       <c r="AL88" s="8">
         <v>1</v>
       </c>
+      <c r="AM88" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>125</v>
       </c>
@@ -11234,8 +11461,11 @@
       <c r="AL89" s="8">
         <v>1</v>
       </c>
+      <c r="AM89" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>127</v>
       </c>
@@ -11348,8 +11578,11 @@
       <c r="AL90" s="8">
         <v>1</v>
       </c>
+      <c r="AM90" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>128</v>
       </c>
@@ -11464,8 +11697,11 @@
       <c r="AL91" s="8">
         <v>1</v>
       </c>
+      <c r="AM91" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>130</v>
       </c>
@@ -11578,8 +11814,11 @@
       <c r="AL92" s="8">
         <v>2</v>
       </c>
+      <c r="AM92" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>131</v>
       </c>
@@ -11694,8 +11933,11 @@
       <c r="AL93" s="8">
         <v>1</v>
       </c>
+      <c r="AM93" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>132</v>
       </c>
@@ -11810,8 +12052,11 @@
       <c r="AL94" s="8">
         <v>1</v>
       </c>
+      <c r="AM94" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>133</v>
       </c>
@@ -11922,8 +12167,11 @@
       <c r="AL95" s="8">
         <v>3</v>
       </c>
+      <c r="AM95" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>91</v>
       </c>
@@ -12038,8 +12286,11 @@
       <c r="AL96" s="8">
         <v>2</v>
       </c>
+      <c r="AM96" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>134</v>
       </c>
@@ -12148,8 +12399,11 @@
       <c r="AL97" s="8">
         <v>2</v>
       </c>
+      <c r="AM97" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>135</v>
       </c>
@@ -12206,8 +12460,9 @@
       <c r="AL98" s="8">
         <v>3</v>
       </c>
+      <c r="AM98" s="8"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>136</v>
       </c>
@@ -12262,8 +12517,9 @@
       <c r="AL99" s="8">
         <v>1</v>
       </c>
+      <c r="AM99" s="8"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>137</v>
       </c>
@@ -12374,8 +12630,11 @@
       <c r="AL100" s="8">
         <v>1</v>
       </c>
+      <c r="AM100" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>139</v>
       </c>
@@ -12488,8 +12747,11 @@
       <c r="AL101" s="8">
         <v>2</v>
       </c>
+      <c r="AM101" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>140</v>
       </c>
@@ -12602,8 +12864,11 @@
       <c r="AL102" s="8">
         <v>1</v>
       </c>
+      <c r="AM102" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>141</v>
       </c>
@@ -12694,8 +12959,9 @@
       <c r="AL103" s="8">
         <v>2</v>
       </c>
+      <c r="AM103" s="8"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>142</v>
       </c>
@@ -12810,8 +13076,11 @@
       <c r="AL104" s="8">
         <v>1</v>
       </c>
+      <c r="AM104" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>143</v>
       </c>
@@ -12866,8 +13135,9 @@
       <c r="AL105" s="8">
         <v>1</v>
       </c>
+      <c r="AM105" s="8"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>144</v>
       </c>
@@ -12982,8 +13252,11 @@
       <c r="AL106" s="8">
         <v>1</v>
       </c>
+      <c r="AM106" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>145</v>
       </c>
@@ -13098,8 +13371,11 @@
       <c r="AL107" s="8">
         <v>1</v>
       </c>
+      <c r="AM107" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>147</v>
       </c>
@@ -13214,8 +13490,11 @@
       <c r="AL108" s="8">
         <v>1</v>
       </c>
+      <c r="AM108" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>150</v>
       </c>
@@ -13270,8 +13549,9 @@
       <c r="AL109" s="8">
         <v>1</v>
       </c>
+      <c r="AM109" s="8"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>151</v>
       </c>
@@ -13386,8 +13666,11 @@
       <c r="AL110" s="8">
         <v>1</v>
       </c>
+      <c r="AM110" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>153</v>
       </c>
@@ -13502,8 +13785,11 @@
       <c r="AL111" s="8">
         <v>1</v>
       </c>
+      <c r="AM111" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>154</v>
       </c>
@@ -13614,8 +13900,11 @@
       <c r="AL112" s="8">
         <v>1</v>
       </c>
+      <c r="AM112" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>156</v>
       </c>
@@ -13728,8 +14017,11 @@
       <c r="AL113" s="8">
         <v>1</v>
       </c>
+      <c r="AM113" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>159</v>
       </c>
@@ -13842,8 +14134,11 @@
       <c r="AL114" s="8">
         <v>1</v>
       </c>
+      <c r="AM114" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>160</v>
       </c>
@@ -13956,8 +14251,11 @@
       <c r="AL115" s="8">
         <v>1</v>
       </c>
+      <c r="AM115" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>161</v>
       </c>
@@ -14068,8 +14366,11 @@
       <c r="AL116" s="8">
         <v>1</v>
       </c>
+      <c r="AM116" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>162</v>
       </c>
@@ -14180,8 +14481,9 @@
       <c r="AL117" s="8">
         <v>2</v>
       </c>
+      <c r="AM117" s="8"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>164</v>
       </c>
@@ -14236,8 +14538,9 @@
       <c r="AL118" s="8">
         <v>1</v>
       </c>
+      <c r="AM118" s="8"/>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>165</v>
       </c>
@@ -14328,8 +14631,9 @@
       <c r="AL119" s="8">
         <v>2</v>
       </c>
+      <c r="AM119" s="8"/>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>167</v>
       </c>
@@ -14444,8 +14748,11 @@
       <c r="AL120" s="8">
         <v>1</v>
       </c>
+      <c r="AM120" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>168</v>
       </c>
@@ -14556,8 +14863,11 @@
       <c r="AL121" s="8">
         <v>1</v>
       </c>
+      <c r="AM121" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>169</v>
       </c>
@@ -14672,8 +14982,11 @@
       <c r="AL122" s="8">
         <v>1</v>
       </c>
+      <c r="AM122" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>170</v>
       </c>
@@ -14788,8 +15101,11 @@
       <c r="AL123" s="8">
         <v>1</v>
       </c>
+      <c r="AM123" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>172</v>
       </c>
@@ -14880,8 +15196,9 @@
       <c r="AL124" s="8">
         <v>2</v>
       </c>
+      <c r="AM124" s="8"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>174</v>
       </c>
@@ -14996,8 +15313,11 @@
       <c r="AL125" s="8">
         <v>1</v>
       </c>
+      <c r="AM125" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>175</v>
       </c>
@@ -15112,8 +15432,11 @@
       <c r="AL126" s="8">
         <v>1</v>
       </c>
+      <c r="AM126" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>176</v>
       </c>
@@ -15228,8 +15551,11 @@
       <c r="AL127" s="8">
         <v>1</v>
       </c>
+      <c r="AM127" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>177</v>
       </c>
@@ -15344,8 +15670,11 @@
       <c r="AL128" s="8">
         <v>1</v>
       </c>
+      <c r="AM128" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>178</v>
       </c>
@@ -15460,8 +15789,11 @@
       <c r="AL129" s="8">
         <v>1</v>
       </c>
+      <c r="AM129" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>179</v>
       </c>
@@ -15576,8 +15908,11 @@
       <c r="AL130" s="8">
         <v>1</v>
       </c>
+      <c r="AM130" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>180</v>
       </c>
@@ -15692,8 +16027,11 @@
       <c r="AL131" s="8">
         <v>2</v>
       </c>
+      <c r="AM131" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>183</v>
       </c>
@@ -15808,8 +16146,11 @@
       <c r="AL132" s="8">
         <v>1</v>
       </c>
+      <c r="AM132" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>184</v>
       </c>
@@ -15922,8 +16263,11 @@
       <c r="AL133" s="8">
         <v>2</v>
       </c>
+      <c r="AM133" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>185</v>
       </c>
@@ -16024,8 +16368,9 @@
       <c r="AL134" s="8">
         <v>1</v>
       </c>
+      <c r="AM134" s="8"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>186</v>
       </c>
@@ -16140,8 +16485,11 @@
       <c r="AL135" s="8">
         <v>1</v>
       </c>
+      <c r="AM135" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>189</v>
       </c>
@@ -16250,8 +16598,11 @@
       <c r="AL136" s="8">
         <v>1</v>
       </c>
+      <c r="AM136" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>190</v>
       </c>
@@ -16306,8 +16657,9 @@
       <c r="AL137" s="8">
         <v>1</v>
       </c>
+      <c r="AM137" s="8"/>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>191</v>
       </c>
@@ -16416,8 +16768,11 @@
       <c r="AL138" s="8">
         <v>1</v>
       </c>
+      <c r="AM138" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>193</v>
       </c>
@@ -16532,8 +16887,11 @@
       <c r="AL139" s="8">
         <v>1</v>
       </c>
+      <c r="AM139" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>192</v>
       </c>
@@ -16648,8 +17006,11 @@
       <c r="AL140" s="8">
         <v>1</v>
       </c>
+      <c r="AM140" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>194</v>
       </c>
@@ -16706,8 +17067,9 @@
       <c r="AL141" s="8">
         <v>3</v>
       </c>
+      <c r="AM141" s="8"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>195</v>
       </c>
@@ -16764,8 +17126,9 @@
       <c r="AL142" s="8">
         <v>1</v>
       </c>
+      <c r="AM142" s="8"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>196</v>
       </c>
@@ -16880,8 +17243,11 @@
       <c r="AL143" s="8">
         <v>1</v>
       </c>
+      <c r="AM143" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>197</v>
       </c>
@@ -16988,8 +17354,11 @@
       <c r="AL144" s="8">
         <v>2</v>
       </c>
+      <c r="AM144" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>198</v>
       </c>
@@ -17102,8 +17471,11 @@
       <c r="AL145" s="8">
         <v>1</v>
       </c>
+      <c r="AM145" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>200</v>
       </c>
@@ -17214,8 +17586,9 @@
       <c r="AL146" s="8">
         <v>1</v>
       </c>
+      <c r="AM146" s="8"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>201</v>
       </c>
@@ -17330,8 +17703,11 @@
       <c r="AL147" s="8">
         <v>2</v>
       </c>
+      <c r="AM147" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>3</v>
       </c>
@@ -17422,8 +17798,9 @@
       <c r="AL148" s="8">
         <v>2</v>
       </c>
+      <c r="AM148" s="8"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>203</v>
       </c>
@@ -17532,8 +17909,11 @@
       <c r="AL149" s="8">
         <v>1</v>
       </c>
+      <c r="AM149" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>204</v>
       </c>
@@ -17648,8 +18028,11 @@
       <c r="AL150" s="8">
         <v>1</v>
       </c>
+      <c r="AM150" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>205</v>
       </c>
@@ -17740,8 +18123,9 @@
       <c r="AL151" s="8">
         <v>2</v>
       </c>
+      <c r="AM151" s="8"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>206</v>
       </c>
@@ -17850,8 +18234,11 @@
       <c r="AL152" s="8">
         <v>1</v>
       </c>
+      <c r="AM152" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>208</v>
       </c>
@@ -17966,8 +18353,11 @@
       <c r="AL153" s="8">
         <v>2</v>
       </c>
+      <c r="AM153" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>209</v>
       </c>
@@ -18078,8 +18468,11 @@
       <c r="AL154" s="8">
         <v>2</v>
       </c>
+      <c r="AM154" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>210</v>
       </c>
@@ -18192,8 +18585,11 @@
       <c r="AL155" s="8">
         <v>1</v>
       </c>
+      <c r="AM155" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>211</v>
       </c>
@@ -18302,8 +18698,11 @@
       <c r="AL156" s="8">
         <v>1</v>
       </c>
+      <c r="AM156" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>212</v>
       </c>
@@ -18412,8 +18811,11 @@
       <c r="AL157" s="8">
         <v>2</v>
       </c>
+      <c r="AM157" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>64</v>
       </c>
@@ -18520,8 +18922,11 @@
       <c r="AL158" s="8">
         <v>2</v>
       </c>
+      <c r="AM158" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>214</v>
       </c>
@@ -18634,8 +19039,11 @@
       <c r="AL159" s="8">
         <v>1</v>
       </c>
+      <c r="AM159" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>215</v>
       </c>
@@ -18746,8 +19154,11 @@
       <c r="AL160" s="8">
         <v>2</v>
       </c>
+      <c r="AM160" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>216</v>
       </c>
@@ -18860,8 +19271,11 @@
       <c r="AL161" s="8">
         <v>2</v>
       </c>
+      <c r="AM161" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>234</v>
       </c>
@@ -18972,8 +19386,11 @@
       <c r="AL162" s="8">
         <v>2</v>
       </c>
+      <c r="AM162" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>218</v>
       </c>
@@ -19088,8 +19505,11 @@
       <c r="AL163" s="8">
         <v>1</v>
       </c>
+      <c r="AM163" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>219</v>
       </c>
@@ -19204,8 +19624,11 @@
       <c r="AL164" s="8">
         <v>1</v>
       </c>
+      <c r="AM164" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>220</v>
       </c>
@@ -19306,8 +19729,11 @@
       <c r="AL165" s="8">
         <v>2</v>
       </c>
+      <c r="AM165" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>223</v>
       </c>
@@ -19416,8 +19842,11 @@
       <c r="AL166" s="8">
         <v>1</v>
       </c>
+      <c r="AM166" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>224</v>
       </c>
@@ -19528,8 +19957,11 @@
       <c r="AL167" s="8">
         <v>1</v>
       </c>
+      <c r="AM167" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>225</v>
       </c>
@@ -19644,8 +20076,9 @@
       <c r="AL168" s="8">
         <v>1</v>
       </c>
+      <c r="AM168" s="8"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>226</v>
       </c>
@@ -19760,8 +20193,11 @@
       <c r="AL169" s="8">
         <v>1</v>
       </c>
+      <c r="AM169" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>228</v>
       </c>
@@ -19876,8 +20312,11 @@
       <c r="AL170" s="8">
         <v>1</v>
       </c>
+      <c r="AM170" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>229</v>
       </c>
@@ -19992,8 +20431,11 @@
       <c r="AL171" s="8">
         <v>1</v>
       </c>
+      <c r="AM171" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>230</v>
       </c>
@@ -20048,8 +20490,9 @@
       <c r="AL172" s="8">
         <v>1</v>
       </c>
+      <c r="AM172" s="8"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>231</v>
       </c>
@@ -20160,8 +20603,11 @@
       <c r="AL173" s="8">
         <v>1</v>
       </c>
+      <c r="AM173" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>232</v>
       </c>
@@ -20274,6 +20720,9 @@
         <v>1</v>
       </c>
       <c r="AL174" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM174" s="8">
         <v>1</v>
       </c>
     </row>
